--- a/dataset/匹配结果对比.xlsx
+++ b/dataset/匹配结果对比.xlsx
@@ -3598,7 +3598,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>是否有出院31日内再住院计划</t>
+          <t>离院方式</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -7118,7 +7118,7 @@
         <v>0.8015687465667725</v>
       </c>
       <c r="F257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -8054,7 +8054,7 @@
         <v>0.8244647979736328</v>
       </c>
       <c r="F293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -11980,7 +11980,7 @@
         <v>0.8324275016784668</v>
       </c>
       <c r="F444" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -14804,7 +14804,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D553" t="n">
@@ -14814,7 +14814,7 @@
         <v>0.8328667283058167</v>
       </c>
       <c r="F553" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D640" t="n">
@@ -18314,7 +18314,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D688" t="n">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>病理诊断名称</t>
+          <t>主要诊断入院病情</t>
         </is>
       </c>
       <c r="D705" t="n">
@@ -19666,7 +19666,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>其他诊断疾病编码</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D740" t="n">

--- a/dataset/匹配结果对比.xlsx
+++ b/dataset/匹配结果对比.xlsx
@@ -5860,7 +5860,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>22.治疗用一次性医用材料费</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>2.一般治疗操作费</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -6754,7 +6754,7 @@
         <v>4.894532136255431</v>
       </c>
       <c r="F243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -9552,7 +9552,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -13426,7 +13426,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D545" t="n">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D572" t="n">
@@ -15480,7 +15480,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D579" t="n">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D592" t="n">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D633" t="n">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D650" t="n">
@@ -17820,7 +17820,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D669" t="n">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -18834,7 +18834,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>22.治疗用一次性医用材料费</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -18844,7 +18844,7 @@
         <v>0</v>
       </c>
       <c r="F708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -19094,7 +19094,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.护理费</t>
         </is>
       </c>
       <c r="D718" t="n">
